--- a/teaching/traditional_assets/database/data/kenya/kenya_rubber_tires.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_rubber_tires.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.125</v>
+        <v>-0.188</v>
       </c>
       <c r="G2">
-        <v>-0.1561576354679803</v>
+        <v>-0.4042016806722689</v>
       </c>
       <c r="H2">
-        <v>-0.1561576354679803</v>
+        <v>-0.4042016806722689</v>
       </c>
       <c r="I2">
-        <v>-0.1797283198917654</v>
+        <v>-0.3554621848739496</v>
       </c>
       <c r="J2">
-        <v>-0.1797283198917654</v>
+        <v>-0.3554621848739496</v>
       </c>
       <c r="K2">
-        <v>-5.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="L2">
-        <v>-0.2561576354679803</v>
+        <v>-0.7394957983193278</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -638,62 +638,68 @@
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>-0.4916201117318437</v>
+      </c>
       <c r="X2">
-        <v>0.105904870509061</v>
+        <v>0.1360142200167553</v>
+      </c>
+      <c r="Y2">
+        <v>-0.6276343317485991</v>
       </c>
       <c r="Z2">
-        <v>11.38898189118071</v>
+        <v>0.4817813765182187</v>
       </c>
       <c r="AA2">
-        <v>-2.04692258057965</v>
+        <v>-0.171255060728745</v>
       </c>
       <c r="AB2">
-        <v>0.09845118476313341</v>
+        <v>0.1035496877369446</v>
       </c>
       <c r="AC2">
-        <v>-2.145373765342784</v>
+        <v>-0.2748047484656896</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="AE2">
-        <v>1.782424469014189</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.782424469014189</v>
+        <v>5.54</v>
       </c>
       <c r="AG2">
-        <v>1.782424469014189</v>
+        <v>5.54</v>
       </c>
       <c r="AH2">
-        <v>0.1582629454180221</v>
+        <v>0.4008683068017366</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.990523869122117</v>
       </c>
       <c r="AJ2">
-        <v>0.1582629454180221</v>
+        <v>0.4008683068017366</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.990523869122117</v>
       </c>
       <c r="AL2">
-        <v>0.681</v>
+        <v>0.707</v>
       </c>
       <c r="AM2">
-        <v>0.656</v>
+        <v>0.707</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-1.709876543209876</v>
       </c>
       <c r="AO2">
-        <v>-5.844346549192363</v>
+        <v>-5.983026874115984</v>
       </c>
       <c r="AP2">
-        <v>-0.7181403984746936</v>
+        <v>-1.709876543209876</v>
       </c>
       <c r="AQ2">
-        <v>-6.067073170731707</v>
+        <v>-5.983026874115984</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sameer Africa Plc (NASE:SMER)</t>
+          <t>Sameer Africa PLC (NASE:SMER)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.125</v>
+        <v>-0.188</v>
       </c>
       <c r="G3">
-        <v>-0.1561576354679803</v>
+        <v>-0.4042016806722689</v>
       </c>
       <c r="H3">
-        <v>-0.1561576354679803</v>
+        <v>-0.4042016806722689</v>
       </c>
       <c r="I3">
-        <v>-0.1797283198917654</v>
+        <v>-0.3554621848739496</v>
       </c>
       <c r="J3">
-        <v>-0.1797283198917654</v>
+        <v>-0.3554621848739496</v>
       </c>
       <c r="K3">
-        <v>-5.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="L3">
-        <v>-0.2561576354679803</v>
+        <v>-0.7394957983193278</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -760,62 +766,68 @@
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="W3">
+        <v>-0.4916201117318437</v>
+      </c>
       <c r="X3">
-        <v>0.105904870509061</v>
+        <v>0.1360142200167553</v>
+      </c>
+      <c r="Y3">
+        <v>-0.6276343317485991</v>
       </c>
       <c r="Z3">
-        <v>11.38898189118071</v>
+        <v>0.4817813765182187</v>
       </c>
       <c r="AA3">
-        <v>-2.04692258057965</v>
+        <v>-0.171255060728745</v>
       </c>
       <c r="AB3">
-        <v>0.09845118476313341</v>
+        <v>0.1035496877369446</v>
       </c>
       <c r="AC3">
-        <v>-2.145373765342784</v>
+        <v>-0.2748047484656896</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="AE3">
-        <v>1.782424469014189</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.782424469014189</v>
+        <v>5.54</v>
       </c>
       <c r="AG3">
-        <v>1.782424469014189</v>
+        <v>5.54</v>
       </c>
       <c r="AH3">
-        <v>0.1582629454180221</v>
+        <v>0.4008683068017366</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.990523869122117</v>
       </c>
       <c r="AJ3">
-        <v>0.1582629454180221</v>
+        <v>0.4008683068017366</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.990523869122117</v>
       </c>
       <c r="AL3">
-        <v>0.681</v>
+        <v>0.707</v>
       </c>
       <c r="AM3">
-        <v>0.656</v>
+        <v>0.707</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>-1.709876543209876</v>
       </c>
       <c r="AO3">
-        <v>-5.844346549192363</v>
+        <v>-5.983026874115984</v>
       </c>
       <c r="AP3">
-        <v>-0.7181403984746936</v>
+        <v>-1.709876543209876</v>
       </c>
       <c r="AQ3">
-        <v>-6.067073170731707</v>
+        <v>-5.983026874115984</v>
       </c>
     </row>
   </sheetData>
